--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_288.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_288.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,678 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1402173913043478</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(18.66, 20.74)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(41.78, 56.28)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.56, 32.44)]</t>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.98, 6.7)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(43.38, 45.8)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.425</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(53.82, 62.52)]</t>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:00:01.500000', '0:00:04.800000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86), (34.66, 36.26), (8.26, 12.96)]</t>
+          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (50.58, 59.48), (0.36, 5.0)]</t>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42)]</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(38.9, 47.16)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(102.16, 113.9)]</t>
+          <t>[('0:00:04.860000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1963636363636364</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:05.880000', '0:00:11.460000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[('0:00:11.940000', '0:00:17.600000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:34.680000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:01:49.440000', '0:02:03.140000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.380000', '0:00:31.160000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (13.98, 21.5)]</t>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(13.52, 51.46)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(17.38, 61.66)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
